--- a/xlsx/臺澎金馬個別關稅領域_intext.xlsx
+++ b/xlsx/臺澎金馬個別關稅領域_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中華民國</t>
   </si>
   <si>
-    <t>政策_政策_美國_臺澎金馬個別關稅領域</t>
+    <t>体育运动_体育运动_南非_臺澎金馬個別關稅領域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
